--- a/아카데미 수업내용 5월/게임 기획서/김혜령(5월).xlsx
+++ b/아카데미 수업내용 5월/게임 기획서/김혜령(5월).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 5월\게임 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Old-acadamy\아카데미 수업내용 5월\게임 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6882E6-C9DE-42BD-A92F-C767B2FE1FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02324436-FCF3-45BD-B76D-56A2AEB7C5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{94D2E2B2-CE9B-4D47-BAEA-1760D6800868}"/>
   </bookViews>
@@ -10547,6 +10547,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D206:G208"/>
+    <mergeCell ref="Q208:T210"/>
+    <mergeCell ref="J280:K281"/>
+    <mergeCell ref="M270:N271"/>
+    <mergeCell ref="S280:T281"/>
+    <mergeCell ref="D257:E258"/>
+    <mergeCell ref="D270:E271"/>
     <mergeCell ref="K200:N202"/>
     <mergeCell ref="K206:N208"/>
     <mergeCell ref="S202:V204"/>
@@ -10554,13 +10561,6 @@
     <mergeCell ref="J267:K268"/>
     <mergeCell ref="M257:N258"/>
     <mergeCell ref="S267:T268"/>
-    <mergeCell ref="D206:G208"/>
-    <mergeCell ref="Q208:T210"/>
-    <mergeCell ref="J280:K281"/>
-    <mergeCell ref="M270:N271"/>
-    <mergeCell ref="S280:T281"/>
-    <mergeCell ref="D257:E258"/>
-    <mergeCell ref="D270:E271"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10573,7 +10573,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:S89"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="X70" sqref="X70"/>
     </sheetView>
   </sheetViews>
@@ -10917,7 +10917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698BEFE8-2FD7-4237-9D7E-5B3BC5330015}">
   <dimension ref="B2:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
